--- a/tabela_mapowania.xlsx
+++ b/tabela_mapowania.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\QNAP-ENERGO\Technologia\INTEGRA\INTEGRA_UPROSZCZENIE\MARSZRUTY_17022025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkuca\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A38779F-6369-4EBC-88E3-D289C2FDD09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D69387B-B783-41FF-B441-CC3F86AE81A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="87">
   <si>
     <t>typ</t>
   </si>
@@ -304,12 +304,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,60 +431,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,7 +773,7 @@
   <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1147,13 +1159,25 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="A14" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="27"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>

--- a/tabela_mapowania.xlsx
+++ b/tabela_mapowania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\QNAP-ENERGO\Technologia\2025\09_6412-45646412(3FB)\INTEGRA_ZLOZENIE-09_6412Biały Montaż (BM)\IMPORTERY\MARSZRUTA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D84A718-8C88-420E-BD7B-B147EEDDDB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6714E148-63F1-45B8-B994-F41C03D0EB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,12 +349,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,83 +534,80 @@
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -611,24 +616,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -912,7 +920,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,7 +948,7 @@
       <c r="A1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -991,7 +999,7 @@
     </row>
     <row r="2" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -1030,7 +1038,7 @@
     </row>
     <row r="3" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -1069,7 +1077,7 @@
     </row>
     <row r="4" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -1096,7 +1104,7 @@
     </row>
     <row r="5" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -1127,7 +1135,7 @@
     </row>
     <row r="6" spans="1:17" s="13" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="25" t="s">
@@ -1154,7 +1162,7 @@
     </row>
     <row r="7" spans="1:17" s="13" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="25" t="s">
@@ -1181,7 +1189,7 @@
     </row>
     <row r="8" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="22" t="s">
@@ -1224,7 +1232,7 @@
     </row>
     <row r="9" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -1270,7 +1278,7 @@
     </row>
     <row r="11" spans="1:17" s="29" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27"/>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="45" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -1293,11 +1301,11 @@
     </row>
     <row r="12" spans="1:17" s="29" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>83</v>
+      <c r="C12" s="53" t="s">
+        <v>48</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>65</v>
@@ -1324,10 +1332,10 @@
     </row>
     <row r="13" spans="1:17" s="29" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>84</v>
       </c>
       <c r="D13" s="27" t="s">
@@ -1355,7 +1363,7 @@
     </row>
     <row r="14" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="49"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="19"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1372,204 +1380,204 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="50" t="s">
+    <row r="15" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-    </row>
-    <row r="16" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="50" t="s">
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+    </row>
+    <row r="16" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34"/>
+      <c r="B16" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-    </row>
-    <row r="17" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="51" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+    </row>
+    <row r="17" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-    </row>
-    <row r="18" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+      <c r="H17" s="38"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+    </row>
+    <row r="18" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-    </row>
-    <row r="19" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="52" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+    </row>
+    <row r="19" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-    </row>
-    <row r="20" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+    </row>
+    <row r="20" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-    </row>
-    <row r="21" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+    </row>
+    <row r="21" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
-      <c r="B22" s="53"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="20"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1588,7 +1596,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
-      <c r="B23" s="43"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="7"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>

--- a/tabela_mapowania.xlsx
+++ b/tabela_mapowania.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\QNAP-ENERGO\Technologia\BAZA\TABELA MAPOWANIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\QNAP-ENERGO\Technologia\2025\08_6500-2FB 45646500\INTEGRA_ZLOZENIE-08_6500_czarny_montaż\IMPORTERY\MARSZRUTA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155AC399-0CE0-4281-ABE2-E5B479F09B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D662671-D705-4BD5-87C0-C92A113B9C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="stare_NIEAKTUALNE" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MARSZRUTY_NOWE!$B$1:$N$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MARSZRUTY_NOWE!$B$1:$N$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="102">
   <si>
     <t>typ</t>
   </si>
@@ -352,12 +352,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -543,81 +551,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,28 +634,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -930,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1313,76 +1327,72 @@
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" s="28" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="44" t="s">
+    <row r="11" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
+      <c r="C11" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
     </row>
     <row r="13" spans="1:17" s="28" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="52" t="s">
-        <v>48</v>
+      <c r="C13" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>65</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+        <v>89</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
       <c r="P13" s="29"/>
       <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="1:17" s="28" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>84</v>
+      <c r="C14" s="52" t="s">
+        <v>48</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>83</v>
@@ -1401,65 +1411,69 @@
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
     </row>
-    <row r="15" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
+    <row r="15" spans="1:17" s="28" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+    </row>
+    <row r="16" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33"/>
       <c r="B17" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>79</v>
+      <c r="C17" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
@@ -1476,25 +1490,21 @@
     </row>
     <row r="18" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>64</v>
+      <c r="C18" s="35" t="s">
+        <v>79</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="37"/>
+        <v>73</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
@@ -1506,24 +1516,26 @@
       <c r="Q18" s="34"/>
     </row>
     <row r="19" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="48" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
+      <c r="C19" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="37"/>
       <c r="I19" s="34"/>
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
@@ -1535,25 +1547,23 @@
       <c r="Q19" s="34"/>
     </row>
     <row r="20" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>96</v>
-      </c>
+      <c r="C20" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
@@ -1566,19 +1576,25 @@
       <c r="Q20" s="34"/>
     </row>
     <row r="21" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
-        <v>100</v>
-      </c>
+      <c r="A21" s="33"/>
       <c r="B21" s="50" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
+        <v>94</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>96</v>
+      </c>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
@@ -1598,7 +1614,7 @@
         <v>75</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -1615,31 +1631,37 @@
       <c r="P22" s="34"/>
       <c r="Q22" s="34"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+    <row r="23" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1653,8 +1675,27 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:N81" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:N82" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/tabela_mapowania.xlsx
+++ b/tabela_mapowania.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\QNAP-ENERGO\Technologia\2025\08_6500-2FB 45646500\INTEGRA_ZLOZENIE-08_6500_czarny_montaż\IMPORTERY\MARSZRUTA2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\QNAP-ENERGO\Technologia\BAZA\TABELA MAPOWANIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D662671-D705-4BD5-87C0-C92A113B9C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7729C3BE-F23D-4330-928C-F212D7909D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="stare_NIEAKTUALNE" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MARSZRUTY_NOWE!$B$1:$N$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MARSZRUTY_NOWE!$B$1:$N$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="102">
   <si>
     <t>typ</t>
   </si>
@@ -318,9 +318,6 @@
     <t>Kontrola</t>
   </si>
   <si>
-    <t>P+OCYNK</t>
-  </si>
-  <si>
     <t>CM+KJ</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>PO</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -658,10 +658,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -944,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,7 +970,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>0</v>
@@ -1108,7 +1105,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>87</v>
@@ -1161,8 +1158,8 @@
       <c r="B6" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>92</v>
+      <c r="C6" s="54" t="s">
+        <v>101</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>69</v>
@@ -1174,7 +1171,7 @@
         <v>64</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -1290,7 +1287,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>65</v>
@@ -1327,72 +1324,76 @@
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="42" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" s="28" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="C12" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
     </row>
     <row r="13" spans="1:17" s="28" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>81</v>
+      <c r="C13" s="52" t="s">
+        <v>48</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>65</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+        <v>19</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="29"/>
       <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="1:17" s="28" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>48</v>
+      <c r="C14" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>83</v>
@@ -1411,69 +1412,65 @@
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
     </row>
-    <row r="15" spans="1:17" s="28" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-    </row>
-    <row r="16" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+    <row r="15" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
     </row>
     <row r="17" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33"/>
       <c r="B17" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>47</v>
+      <c r="C17" s="35" t="s">
+        <v>79</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
@@ -1490,21 +1487,25 @@
     </row>
     <row r="18" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>79</v>
+      <c r="C18" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+        <v>70</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="37"/>
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
@@ -1516,26 +1517,24 @@
       <c r="Q18" s="34"/>
     </row>
     <row r="19" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="49" t="s">
+      <c r="A19" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="37"/>
+      <c r="C19" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
       <c r="I19" s="34"/>
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
@@ -1547,23 +1546,25 @@
       <c r="Q19" s="34"/>
     </row>
     <row r="20" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="48" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
+      <c r="C20" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>95</v>
+      </c>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
@@ -1576,25 +1577,19 @@
       <c r="Q20" s="34"/>
     </row>
     <row r="21" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
+      <c r="A21" s="33" t="s">
+        <v>99</v>
+      </c>
       <c r="B21" s="50" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="34" t="s">
         <v>96</v>
       </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
@@ -1608,7 +1603,7 @@
     </row>
     <row r="22" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="50" t="s">
         <v>75</v>
@@ -1631,37 +1626,31 @@
       <c r="P22" s="34"/>
       <c r="Q22" s="34"/>
     </row>
-    <row r="23" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1675,27 +1664,8 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:N82" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:N81" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1713,7 +1683,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>

--- a/tabela_mapowania.xlsx
+++ b/tabela_mapowania.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\QNAP-ENERGO\Technologia\BAZA\TABELA MAPOWANIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\QNAP-ENERGO\Technologia\2025\08_6500-2FB 45646500\INTEGRA_ZLOZENIE-08_6500_czarny_montaż\IMPORTERY\MARSZRUTA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7729C3BE-F23D-4330-928C-F212D7909D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F0F4FF-DBC9-4A95-BA7D-54E929F267E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="stare_NIEAKTUALNE" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MARSZRUTY_NOWE!$B$1:$N$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MARSZRUTY_NOWE!$B$1:$N$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="105">
   <si>
     <t>typ</t>
   </si>
@@ -346,18 +346,35 @@
   </si>
   <si>
     <t>PO</t>
+  </si>
+  <si>
+    <t>P+OCYNK</t>
+  </si>
+  <si>
+    <t>1wersja</t>
+  </si>
+  <si>
+    <t>2wersja</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -551,81 +568,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,28 +651,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1154,12 +1176,14 @@
       <c r="Q5" s="12"/>
     </row>
     <row r="6" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="16" t="s">
+        <v>103</v>
+      </c>
       <c r="B6" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>101</v>
+      <c r="C6" s="57" t="s">
+        <v>102</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>69</v>
@@ -1171,7 +1195,7 @@
         <v>64</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -1184,13 +1208,15 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
     </row>
-    <row r="7" spans="1:17" s="13" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="B7" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>47</v>
+      <c r="C7" s="57" t="s">
+        <v>101</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>69</v>
@@ -1198,8 +1224,12 @@
       <c r="E7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -1217,13 +1247,13 @@
         <v>31</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -1238,44 +1268,28 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
     </row>
-    <row r="9" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="13" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>90</v>
+      <c r="C9" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>67</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
@@ -1287,7 +1301,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>65</v>
@@ -1313,185 +1327,196 @@
       <c r="K10" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="L10" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>86</v>
+      <c r="L10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" s="28" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="44" t="s">
+    <row r="11" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="27" t="s">
+      <c r="C11" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-    </row>
-    <row r="13" spans="1:17" s="28" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="45" t="s">
+      <c r="E11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
+      <c r="C12" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
     </row>
     <row r="14" spans="1:17" s="28" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>84</v>
+      <c r="C14" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
+        <v>89</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
     </row>
-    <row r="15" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-    </row>
-    <row r="17" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
+    <row r="15" spans="1:17" s="28" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+    </row>
+    <row r="16" spans="1:17" s="28" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+    </row>
+    <row r="17" spans="1:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>64</v>
+      <c r="C18" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>69</v>
@@ -1499,13 +1524,9 @@
       <c r="E18" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="37"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
@@ -1517,20 +1538,18 @@
       <c r="Q18" s="34"/>
     </row>
     <row r="19" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
-        <v>99</v>
-      </c>
+      <c r="A19" s="33"/>
       <c r="B19" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>77</v>
+      <c r="C19" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
@@ -1547,11 +1566,11 @@
     </row>
     <row r="20" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33"/>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="40" t="s">
-        <v>93</v>
+      <c r="C20" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>69</v>
@@ -1559,13 +1578,13 @@
       <c r="E20" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="34"/>
+      <c r="F20" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="37"/>
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
@@ -1577,20 +1596,26 @@
       <c r="Q20" s="34"/>
     </row>
     <row r="21" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="50" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
+      <c r="C21" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="37"/>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
@@ -1605,14 +1630,18 @@
       <c r="A22" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="C22" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
@@ -1626,46 +1655,127 @@
       <c r="P22" s="34"/>
       <c r="Q22" s="34"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+    <row r="23" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33"/>
+      <c r="B23" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+    </row>
+    <row r="24" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+    </row>
+    <row r="25" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:N81" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:N84" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
